--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Год</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">№ вершины</t>
+    <t xml:space="preserve">id_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">№ родителя</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">Сумма</t>
+    <t xml:space="preserve">earnings</t>
   </si>
   <si>
-    <t xml:space="preserve">Вероятность</t>
+    <t xml:space="preserve">probability</t>
   </si>
   <si>
     <t xml:space="preserve">Итоговая вероятность</t>
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -182,20 +182,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -206,7 +206,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,7 +214,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,11 +234,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,7 +250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,11 +258,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,15 +274,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,38 +372,38 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="960" min="10" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="23.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="960" min="10" style="2" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="961" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -421,13 +421,13 @@
     </row>
     <row r="2" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="n">
         <v>2018</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
       <c r="D2" s="7" t="n">
         <v>100</v>
       </c>
@@ -510,18 +510,18 @@
       <c r="AMG2" s="11"/>
       <c r="AMH2" s="11"/>
       <c r="AMI2" s="11"/>
-      <c r="AMJ2" s="11"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>2019</v>
-      </c>
-      <c r="B3" s="12" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>200</v>
@@ -608,18 +608,18 @@
       <c r="AMG3" s="17"/>
       <c r="AMH3" s="17"/>
       <c r="AMI3" s="17"/>
-      <c r="AMJ3" s="17"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>2019</v>
-      </c>
-      <c r="B4" s="12" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>120</v>
@@ -706,18 +706,18 @@
       <c r="AMG4" s="17"/>
       <c r="AMH4" s="17"/>
       <c r="AMI4" s="17"/>
-      <c r="AMJ4" s="17"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>2019</v>
-      </c>
-      <c r="B5" s="12" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>80</v>
@@ -804,18 +804,18 @@
       <c r="AMG5" s="17"/>
       <c r="AMH5" s="17"/>
       <c r="AMI5" s="17"/>
-      <c r="AMJ5" s="17"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>2019</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>1</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>40</v>
@@ -902,18 +902,18 @@
       <c r="AMG6" s="17"/>
       <c r="AMH6" s="17"/>
       <c r="AMI6" s="17"/>
-      <c r="AMJ6" s="17"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B7" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="18" t="n">
-        <v>2</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>300</v>
@@ -1000,18 +1000,18 @@
       <c r="AMG7" s="23"/>
       <c r="AMH7" s="23"/>
       <c r="AMI7" s="23"/>
-      <c r="AMJ7" s="23"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B8" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>7</v>
-      </c>
-      <c r="C8" s="18" t="n">
-        <v>2</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>200</v>
@@ -1098,18 +1098,18 @@
       <c r="AMG8" s="23"/>
       <c r="AMH8" s="23"/>
       <c r="AMI8" s="23"/>
-      <c r="AMJ8" s="23"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B9" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>8</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>2</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>140</v>
@@ -1196,18 +1196,18 @@
       <c r="AMG9" s="23"/>
       <c r="AMH9" s="23"/>
       <c r="AMI9" s="23"/>
-      <c r="AMJ9" s="23"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>9</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>3</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>160</v>
@@ -1294,18 +1294,18 @@
       <c r="AMG10" s="23"/>
       <c r="AMH10" s="23"/>
       <c r="AMI10" s="23"/>
-      <c r="AMJ10" s="23"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="18" t="n">
-        <v>3</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>300</v>
@@ -1392,18 +1392,18 @@
       <c r="AMG11" s="23"/>
       <c r="AMH11" s="23"/>
       <c r="AMI11" s="23"/>
-      <c r="AMJ11" s="23"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B12" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>11</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>3</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>90</v>
@@ -1490,18 +1490,18 @@
       <c r="AMG12" s="23"/>
       <c r="AMH12" s="23"/>
       <c r="AMI12" s="23"/>
-      <c r="AMJ12" s="23"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B13" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>12</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>3</v>
       </c>
       <c r="D13" s="18" t="n">
         <v>60</v>
@@ -1588,18 +1588,18 @@
       <c r="AMG13" s="23"/>
       <c r="AMH13" s="23"/>
       <c r="AMI13" s="23"/>
-      <c r="AMJ13" s="23"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B14" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>13</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <v>4</v>
       </c>
       <c r="D14" s="18" t="n">
         <v>100</v>
@@ -1686,18 +1686,18 @@
       <c r="AMG14" s="23"/>
       <c r="AMH14" s="23"/>
       <c r="AMI14" s="23"/>
-      <c r="AMJ14" s="23"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B15" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>14</v>
-      </c>
-      <c r="C15" s="18" t="n">
-        <v>4</v>
       </c>
       <c r="D15" s="18" t="n">
         <v>80</v>
@@ -1784,18 +1784,18 @@
       <c r="AMG15" s="23"/>
       <c r="AMH15" s="23"/>
       <c r="AMI15" s="23"/>
-      <c r="AMJ15" s="23"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B16" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>15</v>
-      </c>
-      <c r="C16" s="18" t="n">
-        <v>4</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>40</v>
@@ -1882,18 +1882,18 @@
       <c r="AMG16" s="23"/>
       <c r="AMH16" s="23"/>
       <c r="AMI16" s="23"/>
-      <c r="AMJ16" s="23"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B17" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>16</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>5</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>50</v>
@@ -1980,18 +1980,18 @@
       <c r="AMG17" s="23"/>
       <c r="AMH17" s="23"/>
       <c r="AMI17" s="23"/>
-      <c r="AMJ17" s="23"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B18" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>17</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>5</v>
       </c>
       <c r="D18" s="18" t="n">
         <v>30</v>
@@ -2078,18 +2078,18 @@
       <c r="AMG18" s="23"/>
       <c r="AMH18" s="23"/>
       <c r="AMI18" s="23"/>
-      <c r="AMJ18" s="23"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18" t="n">
         <v>2020</v>
-      </c>
-      <c r="B19" s="18" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>18</v>
-      </c>
-      <c r="C19" s="18" t="n">
-        <v>5</v>
       </c>
       <c r="D19" s="18" t="n">
         <v>10</v>
@@ -2176,18 +2176,18 @@
       <c r="AMG19" s="23"/>
       <c r="AMH19" s="23"/>
       <c r="AMI19" s="23"/>
-      <c r="AMJ19" s="23"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>19</v>
-      </c>
-      <c r="C20" s="24" t="n">
-        <v>6</v>
       </c>
       <c r="D20" s="24" t="n">
         <v>284</v>
@@ -2214,14 +2214,14 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>20</v>
-      </c>
-      <c r="C21" s="24" t="n">
-        <v>7</v>
       </c>
       <c r="D21" s="24" t="n">
         <v>115</v>
@@ -2248,14 +2248,14 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="n">
-        <v>8</v>
       </c>
       <c r="D22" s="24" t="n">
         <v>81</v>
@@ -2282,14 +2282,14 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B23" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>22</v>
-      </c>
-      <c r="C23" s="24" t="n">
-        <v>9</v>
       </c>
       <c r="D23" s="24" t="n">
         <v>167</v>
@@ -2316,14 +2316,14 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B24" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>23</v>
-      </c>
-      <c r="C24" s="24" t="n">
-        <v>9</v>
       </c>
       <c r="D24" s="24" t="n">
         <v>13</v>
@@ -2350,14 +2350,14 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B25" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>24</v>
-      </c>
-      <c r="C25" s="24" t="n">
-        <v>9</v>
       </c>
       <c r="D25" s="24" t="n">
         <v>121</v>
@@ -2384,14 +2384,14 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B26" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>25</v>
-      </c>
-      <c r="C26" s="24" t="n">
-        <v>10</v>
       </c>
       <c r="D26" s="24" t="n">
         <v>314</v>
@@ -2418,14 +2418,14 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B27" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>26</v>
-      </c>
-      <c r="C27" s="24" t="n">
-        <v>10</v>
       </c>
       <c r="D27" s="24" t="n">
         <v>239</v>
@@ -2452,14 +2452,14 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B28" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>27</v>
-      </c>
-      <c r="C28" s="24" t="n">
-        <v>10</v>
       </c>
       <c r="D28" s="24" t="n">
         <v>257</v>
@@ -2486,14 +2486,14 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B29" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>28</v>
-      </c>
-      <c r="C29" s="27" t="n">
-        <v>11</v>
       </c>
       <c r="D29" s="24" t="n">
         <v>91</v>
@@ -2520,14 +2520,14 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B30" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>29</v>
-      </c>
-      <c r="C30" s="27" t="n">
-        <v>11</v>
       </c>
       <c r="D30" s="24" t="n">
         <v>203</v>
@@ -2554,14 +2554,14 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B31" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>30</v>
-      </c>
-      <c r="C31" s="24" t="n">
-        <v>11</v>
       </c>
       <c r="D31" s="24" t="n">
         <v>85</v>
@@ -2588,14 +2588,14 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B32" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>31</v>
-      </c>
-      <c r="C32" s="24" t="n">
-        <v>12</v>
       </c>
       <c r="D32" s="24" t="n">
         <v>175</v>
@@ -2622,14 +2622,14 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B33" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>32</v>
-      </c>
-      <c r="C33" s="24" t="n">
-        <v>12</v>
       </c>
       <c r="D33" s="24" t="n">
         <v>201</v>
@@ -2656,14 +2656,14 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B34" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="C34" s="24" t="n">
-        <v>12</v>
       </c>
       <c r="D34" s="24" t="n">
         <v>145</v>
@@ -2690,14 +2690,14 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B35" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>34</v>
-      </c>
-      <c r="C35" s="24" t="n">
-        <v>13</v>
       </c>
       <c r="D35" s="24" t="n">
         <v>266</v>
@@ -2724,14 +2724,14 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C36" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B36" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>35</v>
-      </c>
-      <c r="C36" s="24" t="n">
-        <v>13</v>
       </c>
       <c r="D36" s="24" t="n">
         <v>64</v>
@@ -2758,14 +2758,14 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B37" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>36</v>
-      </c>
-      <c r="C37" s="24" t="n">
-        <v>13</v>
       </c>
       <c r="D37" s="24" t="n">
         <v>114</v>
@@ -2792,14 +2792,14 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B38" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>37</v>
-      </c>
-      <c r="C38" s="24" t="n">
-        <v>14</v>
       </c>
       <c r="D38" s="24" t="n">
         <v>35</v>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B39" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>38</v>
-      </c>
-      <c r="C39" s="24" t="n">
-        <v>14</v>
       </c>
       <c r="D39" s="24" t="n">
         <v>110</v>
@@ -2860,14 +2860,14 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B40" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>39</v>
-      </c>
-      <c r="C40" s="24" t="n">
-        <v>14</v>
       </c>
       <c r="D40" s="24" t="n">
         <v>255</v>
@@ -2894,14 +2894,14 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B41" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>40</v>
-      </c>
-      <c r="C41" s="24" t="n">
-        <v>15</v>
       </c>
       <c r="D41" s="24" t="n">
         <v>86</v>
@@ -2928,14 +2928,14 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C42" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B42" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>41</v>
-      </c>
-      <c r="C42" s="24" t="n">
-        <v>15</v>
       </c>
       <c r="D42" s="24" t="n">
         <v>199</v>
@@ -2962,14 +2962,14 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B43" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>42</v>
-      </c>
-      <c r="C43" s="24" t="n">
-        <v>15</v>
       </c>
       <c r="D43" s="24" t="n">
         <v>251</v>
@@ -2996,14 +2996,14 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B44" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>43</v>
-      </c>
-      <c r="C44" s="24" t="n">
-        <v>16</v>
       </c>
       <c r="D44" s="24" t="n">
         <v>98</v>
@@ -3030,14 +3030,14 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B45" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>44</v>
-      </c>
-      <c r="C45" s="24" t="n">
-        <v>16</v>
       </c>
       <c r="D45" s="24" t="n">
         <v>133</v>
@@ -3064,14 +3064,14 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B46" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>45</v>
-      </c>
-      <c r="C46" s="24" t="n">
-        <v>16</v>
       </c>
       <c r="D46" s="24" t="n">
         <v>75</v>
@@ -3098,14 +3098,14 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B47" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>46</v>
-      </c>
-      <c r="C47" s="24" t="n">
-        <v>17</v>
       </c>
       <c r="D47" s="24" t="n">
         <v>123</v>
@@ -3132,14 +3132,14 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C48" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B48" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>47</v>
-      </c>
-      <c r="C48" s="24" t="n">
-        <v>17</v>
       </c>
       <c r="D48" s="24" t="n">
         <v>250</v>
@@ -3166,14 +3166,14 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B49" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>48</v>
-      </c>
-      <c r="C49" s="24" t="n">
-        <v>17</v>
       </c>
       <c r="D49" s="24" t="n">
         <v>207</v>
@@ -3200,14 +3200,14 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B50" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>49</v>
-      </c>
-      <c r="C50" s="24" t="n">
-        <v>18</v>
       </c>
       <c r="D50" s="24" t="n">
         <v>150</v>
@@ -3234,14 +3234,14 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B51" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>50</v>
-      </c>
-      <c r="C51" s="24" t="n">
-        <v>18</v>
       </c>
       <c r="D51" s="24" t="n">
         <v>76</v>
@@ -3268,14 +3268,14 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" s="24" t="n">
         <v>2021</v>
-      </c>
-      <c r="B52" s="24" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>51</v>
-      </c>
-      <c r="C52" s="24" t="n">
-        <v>18</v>
       </c>
       <c r="D52" s="24" t="n">
         <v>51</v>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -37,13 +37,13 @@
     <t xml:space="preserve">probability</t>
   </si>
   <si>
-    <t xml:space="preserve">Итоговая вероятность</t>
+    <t xml:space="preserve">final_probability</t>
   </si>
   <si>
-    <t xml:space="preserve">Дисконтированная сумма</t>
+    <t xml:space="preserve">discount_sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Итоговая дисконтированная сумма</t>
+    <t xml:space="preserve">final_discount_sum</t>
   </si>
   <si>
     <t xml:space="preserve">final_sum</t>
@@ -372,7 +372,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
